--- a/data/trans_orig/P27_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>86214</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69838</v>
+        <v>68616</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105624</v>
+        <v>104133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1303981659101096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1056305150803114</v>
+        <v>0.1037812842037677</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1597568222425374</v>
+        <v>0.1575012370405313</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -765,19 +765,19 @@
         <v>46203</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34821</v>
+        <v>35151</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59413</v>
+        <v>60285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07213437254116241</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05436400278764045</v>
+        <v>0.05487902643218</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09275918727498381</v>
+        <v>0.09412027480087742</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>129</v>
@@ -786,19 +786,19 @@
         <v>132416</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>112143</v>
+        <v>112303</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>154594</v>
+        <v>156025</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1017283443568599</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08615346436090653</v>
+        <v>0.08627648985689225</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1187666383718047</v>
+        <v>0.1198655771291565</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>299475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>270953</v>
+        <v>271487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>324232</v>
+        <v>324055</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4529561366507599</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4098167809934944</v>
+        <v>0.4106247061509505</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.490401592323208</v>
+        <v>0.4901336218708461</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>258</v>
@@ -836,19 +836,19 @@
         <v>255119</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>232353</v>
+        <v>231485</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>280804</v>
+        <v>279413</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3983056793298425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3627623737428914</v>
+        <v>0.3614067778660764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4384071197667263</v>
+        <v>0.4362350490731855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>555</v>
@@ -857,19 +857,19 @@
         <v>554593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>521799</v>
+        <v>520432</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>592402</v>
+        <v>591076</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.426064326684448</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4008698969088842</v>
+        <v>0.3998199011757212</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4551109564027617</v>
+        <v>0.4540919496125606</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>154521</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>133429</v>
+        <v>132331</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>179401</v>
+        <v>176316</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2337130271031861</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2018110195171124</v>
+        <v>0.2001507772858517</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2713443353154188</v>
+        <v>0.2666783128807866</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>172</v>
@@ -907,19 +907,19 @@
         <v>171136</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>149247</v>
+        <v>149041</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>193889</v>
+        <v>192672</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2671863599228118</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.23301278456358</v>
+        <v>0.2326908026152276</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3027098567568394</v>
+        <v>0.3008101945233139</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>324</v>
@@ -928,19 +928,19 @@
         <v>325656</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>291269</v>
+        <v>297320</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>357324</v>
+        <v>357205</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2501842251361429</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2237665847121855</v>
+        <v>0.2284146185310633</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2745127588324367</v>
+        <v>0.2744211475374123</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>120947</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101708</v>
+        <v>101495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143845</v>
+        <v>140133</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1829326703359445</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.153833779041923</v>
+        <v>0.1535117259542438</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2175653454270915</v>
+        <v>0.2119510537569171</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>172</v>
@@ -978,19 +978,19 @@
         <v>168053</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148287</v>
+        <v>147354</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192206</v>
+        <v>190389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2623735882061832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2315136863303415</v>
+        <v>0.2300576551904515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3000827218451456</v>
+        <v>0.2972453633586398</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>292</v>
@@ -999,19 +999,19 @@
         <v>289000</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>259517</v>
+        <v>262476</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>319427</v>
+        <v>317436</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2220231038225491</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1993727300121426</v>
+        <v>0.2016460428207411</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2453982434169485</v>
+        <v>0.2438692753934869</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>138110</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>115028</v>
+        <v>115992</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>159481</v>
+        <v>163838</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1495289380694346</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1245385842698174</v>
+        <v>0.125582291656608</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1726667324998021</v>
+        <v>0.1773837601488103</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>78</v>
@@ -1124,19 +1124,19 @@
         <v>81414</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>64115</v>
+        <v>65824</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>100463</v>
+        <v>101814</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08700285162330755</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06851647249267011</v>
+        <v>0.07034281235450277</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.107359939764273</v>
+        <v>0.1088042066161952</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>202</v>
@@ -1145,19 +1145,19 @@
         <v>219524</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>193452</v>
+        <v>192419</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>250197</v>
+        <v>249193</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1180620625617399</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1040403497366491</v>
+        <v>0.1034850929564402</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1345583283523984</v>
+        <v>0.1340183056127597</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>374851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>347841</v>
+        <v>341765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>413488</v>
+        <v>405412</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4058436294534141</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3766009333419154</v>
+        <v>0.3700219720534272</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4476751966981383</v>
+        <v>0.4389309247109749</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>294</v>
@@ -1195,19 +1195,19 @@
         <v>306207</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>279601</v>
+        <v>275699</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>336203</v>
+        <v>335494</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3272296548858015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2987969098052149</v>
+        <v>0.2946270996479204</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3592847253954894</v>
+        <v>0.3585268673954873</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>647</v>
@@ -1216,19 +1216,19 @@
         <v>681059</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>639940</v>
+        <v>634045</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>723479</v>
+        <v>720647</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3662803640791205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.344166352633853</v>
+        <v>0.3409960324322616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3890941998923586</v>
+        <v>0.3875711652137888</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>236101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>207641</v>
+        <v>208125</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>263282</v>
+        <v>263447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2556222145462129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2248090293611519</v>
+        <v>0.2253332132438057</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2850496446845861</v>
+        <v>0.2852289654800409</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>262</v>
@@ -1266,19 +1266,19 @@
         <v>279485</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>253277</v>
+        <v>252094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>308136</v>
+        <v>311761</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2986731536533125</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2706651083764718</v>
+        <v>0.2694006872068541</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3292904511572026</v>
+        <v>0.3331643693106939</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>481</v>
@@ -1287,19 +1287,19 @@
         <v>515587</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>477512</v>
+        <v>477161</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>553678</v>
+        <v>553653</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2772880282628551</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2568108007518783</v>
+        <v>0.2566221793181983</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2977738519808505</v>
+        <v>0.2977600035558116</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>174572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>153463</v>
+        <v>150594</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>201901</v>
+        <v>200730</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1890052179309383</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1661508181012913</v>
+        <v>0.1630451940973771</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2185945602539376</v>
+        <v>0.2173266005894607</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>246</v>
@@ -1337,19 +1337,19 @@
         <v>268651</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>240944</v>
+        <v>241589</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>295227</v>
+        <v>296493</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2870943398375784</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2574851425387379</v>
+        <v>0.2581752665495</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3154951079903918</v>
+        <v>0.3168484028762749</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>412</v>
@@ -1358,19 +1358,19 @@
         <v>443222</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>403278</v>
+        <v>405426</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>479069</v>
+        <v>483223</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2383695450962846</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2168871038344399</v>
+        <v>0.2180422889741613</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2576484170709169</v>
+        <v>0.2598824328568592</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>65468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50631</v>
+        <v>50785</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>81699</v>
+        <v>81783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1003837494483518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0776345118421891</v>
+        <v>0.07786962156828131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1252710186118313</v>
+        <v>0.1254003279104289</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>50</v>
@@ -1483,19 +1483,19 @@
         <v>46943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34595</v>
+        <v>34702</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60258</v>
+        <v>60980</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07100467295815188</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05232766999918388</v>
+        <v>0.0524890273631775</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09114424962402662</v>
+        <v>0.09223559221105461</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -1504,19 +1504,19 @@
         <v>112411</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>93110</v>
+        <v>91667</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>132255</v>
+        <v>132172</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08559404912517338</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07089747380146245</v>
+        <v>0.069798673231937</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1007040205771225</v>
+        <v>0.1006403731085037</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>265483</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>239936</v>
+        <v>239415</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>291558</v>
+        <v>292858</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4070722477735375</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3679003037780117</v>
+        <v>0.3671017025557869</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4470530470165792</v>
+        <v>0.4490473838506744</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>188</v>
@@ -1554,19 +1554,19 @@
         <v>182785</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>161009</v>
+        <v>160740</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>205590</v>
+        <v>205867</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.276473007010225</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2435358587882332</v>
+        <v>0.2431291430434558</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.310966639733029</v>
+        <v>0.3113849363478236</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>434</v>
@@ -1575,19 +1575,19 @@
         <v>448268</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>416307</v>
+        <v>411500</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>481642</v>
+        <v>481104</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3413273754332403</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3169905495994631</v>
+        <v>0.3133305893494031</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3667392133071976</v>
+        <v>0.3663292561058139</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>160633</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>139092</v>
+        <v>139597</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>184722</v>
+        <v>185180</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2463033873052936</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2132739142317197</v>
+        <v>0.2140477878777952</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2832397721874913</v>
+        <v>0.2839419131279083</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -1625,19 +1625,19 @@
         <v>180201</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>157843</v>
+        <v>156213</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202607</v>
+        <v>204287</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2725647738393676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2387460011962318</v>
+        <v>0.2362816769527642</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3064545903379899</v>
+        <v>0.3089964605753583</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>324</v>
@@ -1646,19 +1646,19 @@
         <v>340835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>308828</v>
+        <v>306632</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>373609</v>
+        <v>372338</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2595236135108269</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2351524321185548</v>
+        <v>0.2334805353365645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2844793969886508</v>
+        <v>0.2835112776127157</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>160592</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>136601</v>
+        <v>140135</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>184427</v>
+        <v>182040</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2462406154728171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2094533742452163</v>
+        <v>0.2148726375224873</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2827866552377745</v>
+        <v>0.279126351183224</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>255</v>
@@ -1696,19 +1696,19 @@
         <v>251202</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>226380</v>
+        <v>228758</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>276146</v>
+        <v>277481</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3799575461922555</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3424134012140225</v>
+        <v>0.34601001247839</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4176865838701702</v>
+        <v>0.4197056824259124</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>412</v>
@@ -1717,19 +1717,19 @@
         <v>411795</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>377977</v>
+        <v>381656</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>446032</v>
+        <v>445429</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3135549619307594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2878048417438809</v>
+        <v>0.2906060955657022</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3396246995587006</v>
+        <v>0.3391653106101486</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>139327</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>119907</v>
+        <v>118239</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>161386</v>
+        <v>160035</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.158375596824454</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1363002377725273</v>
+        <v>0.1344050492775002</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1834503328500048</v>
+        <v>0.1819146699952505</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -1842,19 +1842,19 @@
         <v>90985</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73252</v>
+        <v>73898</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109939</v>
+        <v>111687</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09384176233078827</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07555139683852767</v>
+        <v>0.07621788871449404</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1133906093187641</v>
+        <v>0.1151930645375377</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>233</v>
@@ -1863,19 +1863,19 @@
         <v>230312</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>206983</v>
+        <v>204605</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>260763</v>
+        <v>261801</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.124541181389322</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1119257680023527</v>
+        <v>0.1106402059674938</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1410071645203957</v>
+        <v>0.1415688405159212</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>336520</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>311732</v>
+        <v>309633</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>365339</v>
+        <v>366708</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3825281702788987</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3543511350862575</v>
+        <v>0.3519660627778782</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4152873203625354</v>
+        <v>0.4168439141475522</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>325</v>
@@ -1913,19 +1913,19 @@
         <v>335618</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>306019</v>
+        <v>305800</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>368304</v>
+        <v>364484</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3461545889233963</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3156259280228012</v>
+        <v>0.3153996790137809</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3798665114008641</v>
+        <v>0.3759260566576603</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>682</v>
@@ -1934,19 +1934,19 @@
         <v>672138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>631047</v>
+        <v>631163</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>715283</v>
+        <v>712549</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3634578814590637</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3412380803341011</v>
+        <v>0.341301160681899</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3867885648106248</v>
+        <v>0.385310262466907</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>245564</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>220681</v>
+        <v>220143</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>270975</v>
+        <v>274599</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2791373239738373</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.250852206198146</v>
+        <v>0.2502405645611732</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3080227904280627</v>
+        <v>0.3121413691552727</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>261</v>
@@ -1984,19 +1984,19 @@
         <v>272561</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>245417</v>
+        <v>245559</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>303924</v>
+        <v>298231</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2811179853521398</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2531215941368183</v>
+        <v>0.2532678050924211</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3134657086045723</v>
+        <v>0.3075936503133491</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>513</v>
@@ -2005,19 +2005,19 @@
         <v>518125</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>482632</v>
+        <v>483239</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>559666</v>
+        <v>561045</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.280175764048499</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2609828591898611</v>
+        <v>0.2613108809853987</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3026390945154292</v>
+        <v>0.303384806149266</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>158314</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134927</v>
+        <v>137818</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>180525</v>
+        <v>184095</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.17995890892281</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1533745764200907</v>
+        <v>0.1566599453266172</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2052066212402251</v>
+        <v>0.2092647065835598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>258</v>
@@ -2055,19 +2055,19 @@
         <v>270397</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>241719</v>
+        <v>244363</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>297353</v>
+        <v>300155</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2788856633936757</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2493074417613745</v>
+        <v>0.2520345108927435</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3066876131514556</v>
+        <v>0.3095778423248419</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>431</v>
@@ -2076,19 +2076,19 @@
         <v>428711</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>392669</v>
+        <v>393367</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>465646</v>
+        <v>465829</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2318251731031153</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2123355644416991</v>
+        <v>0.2127131244853758</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2517979703004075</v>
+        <v>0.2518968307787648</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>429119</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>390381</v>
+        <v>392619</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>468220</v>
+        <v>474071</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1376839542377182</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1252548602697824</v>
+        <v>0.125972883425424</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1502297503167628</v>
+        <v>0.1521070672093554</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>261</v>
@@ -2201,19 +2201,19 @@
         <v>265545</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>232780</v>
+        <v>236476</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>295707</v>
+        <v>301401</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08280274663464207</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07258581763265444</v>
+        <v>0.07373828626860231</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09220784507475133</v>
+        <v>0.0939832598838745</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>677</v>
@@ -2222,19 +2222,19 @@
         <v>694664</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>645910</v>
+        <v>645080</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>749929</v>
+        <v>747796</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1098516437307737</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1021418383112444</v>
+        <v>0.1020106355604907</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1185910673054962</v>
+        <v>0.1182537735904985</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>1276329</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1225982</v>
+        <v>1220074</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1328948</v>
+        <v>1329913</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4095138078012478</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.393359882628547</v>
+        <v>0.3914642412796034</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4263966993564735</v>
+        <v>0.4267064656211442</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1065</v>
@@ -2272,19 +2272,19 @@
         <v>1079730</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1020830</v>
+        <v>1030885</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1135605</v>
+        <v>1136694</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3366831336601537</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3183169560496319</v>
+        <v>0.3214524154223587</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3541062018654114</v>
+        <v>0.3544457199224481</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2318</v>
@@ -2293,19 +2293,19 @@
         <v>2356058</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2283625</v>
+        <v>2282901</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2430546</v>
+        <v>2443280</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3725786522961891</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3611243967764149</v>
+        <v>0.3610098147948082</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3843578573616537</v>
+        <v>0.3863716751775825</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>796820</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>748286</v>
+        <v>746964</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>848781</v>
+        <v>848402</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2556619691417693</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2400898465537467</v>
+        <v>0.2396654761512273</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2723337404975711</v>
+        <v>0.272212271879213</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>872</v>
@@ -2343,19 +2343,19 @@
         <v>903384</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>855645</v>
+        <v>856533</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>956092</v>
+        <v>956624</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2816946162502016</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2668087853865784</v>
+        <v>0.2670855996428732</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2981303093425373</v>
+        <v>0.2982962185482599</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1642</v>
@@ -2364,19 +2364,19 @@
         <v>1700203</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1621314</v>
+        <v>1622637</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1771470</v>
+        <v>1769565</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2688640969608188</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2563888524347191</v>
+        <v>0.2565979669626149</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2801339262331957</v>
+        <v>0.2798327315451854</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>614426</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>565610</v>
+        <v>567533</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>654563</v>
+        <v>656866</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1971402688192647</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1814777399542694</v>
+        <v>0.1820947690344366</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2100185065230755</v>
+        <v>0.2107574722712587</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>931</v>
@@ -2414,19 +2414,19 @@
         <v>958302</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>902771</v>
+        <v>909300</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1006878</v>
+        <v>1009750</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2988195034550026</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2815034453052454</v>
+        <v>0.2835394056435485</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3139665226908773</v>
+        <v>0.3148617988981764</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1547</v>
@@ -2435,19 +2435,19 @@
         <v>1572728</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1498713</v>
+        <v>1512541</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1635137</v>
+        <v>1643331</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2487056070122184</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2370011280344644</v>
+        <v>0.2391877818891083</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2585748049564318</v>
+        <v>0.2598705309245435</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>18519</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11096</v>
+        <v>11167</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27982</v>
+        <v>28269</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02646322636463955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01585638008659767</v>
+        <v>0.01595771105052667</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03998582407315614</v>
+        <v>0.04039634222247779</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2800,19 +2800,19 @@
         <v>11212</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5912</v>
+        <v>6083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20159</v>
+        <v>19585</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01633643484055245</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008614656782093597</v>
+        <v>0.008863461728452321</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0293721795257277</v>
+        <v>0.028536600658258</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -2821,19 +2821,19 @@
         <v>29731</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20240</v>
+        <v>20554</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42171</v>
+        <v>41545</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02144904366491774</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01460237926058897</v>
+        <v>0.01482877851826469</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03042432512309636</v>
+        <v>0.02997260365838023</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>52596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40431</v>
+        <v>39233</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69327</v>
+        <v>69389</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07515970815356898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05777573251175718</v>
+        <v>0.05606346237164456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09906885230279375</v>
+        <v>0.09915755694376825</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -2871,19 +2871,19 @@
         <v>30189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20552</v>
+        <v>20639</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43082</v>
+        <v>43351</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04398692475178164</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02994480332733216</v>
+        <v>0.03007194580780482</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06277267685596651</v>
+        <v>0.0631641011262621</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -2892,19 +2892,19 @@
         <v>82785</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>66481</v>
+        <v>65597</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102141</v>
+        <v>102655</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05972480650049997</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04796231135758406</v>
+        <v>0.04732490352606061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07368909654833448</v>
+        <v>0.07405998353332137</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>84840</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68130</v>
+        <v>69282</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103998</v>
+        <v>103483</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1212359008240575</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0973577726072387</v>
+        <v>0.09900443646663061</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1486134947181182</v>
+        <v>0.1478776198257241</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>69</v>
@@ -2942,19 +2942,19 @@
         <v>74630</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58043</v>
+        <v>58366</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>92124</v>
+        <v>91774</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1087402229322893</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08457235016803356</v>
+        <v>0.08504254245738606</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1342297382982064</v>
+        <v>0.1337196855068609</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>153</v>
@@ -2963,19 +2963,19 @@
         <v>159470</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>136523</v>
+        <v>136917</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>188947</v>
+        <v>187156</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1150487869926756</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0984936353364055</v>
+        <v>0.09877851438559151</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1363150681173191</v>
+        <v>0.1350226473233513</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>543835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>522098</v>
+        <v>520116</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>564875</v>
+        <v>564197</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.777141164657734</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7460788476738486</v>
+        <v>0.7432465497615628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8072073747032307</v>
+        <v>0.8062388984500978</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>531</v>
@@ -3013,19 +3013,19 @@
         <v>570285</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>550471</v>
+        <v>548871</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>588072</v>
+        <v>589418</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8309364174753766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8020665634785981</v>
+        <v>0.7997357898471433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8568525829729045</v>
+        <v>0.8588148800758463</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1048</v>
@@ -3034,19 +3034,19 @@
         <v>1114120</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1080727</v>
+        <v>1082532</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1143518</v>
+        <v>1143043</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8037773628419067</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7796865796965097</v>
+        <v>0.7809882645631722</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.824986911816897</v>
+        <v>0.8246437446527765</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>34476</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23515</v>
+        <v>24295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>46255</v>
+        <v>47416</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03423783722454777</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02335231149004021</v>
+        <v>0.02412696706095974</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04593534855285789</v>
+        <v>0.04708777506265064</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -3159,19 +3159,19 @@
         <v>24256</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14926</v>
+        <v>15712</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35075</v>
+        <v>35537</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0237471147842578</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01461312082867659</v>
+        <v>0.01538267745522933</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03433954650000837</v>
+        <v>0.03479115342952993</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>56</v>
@@ -3180,19 +3180,19 @@
         <v>58732</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>45772</v>
+        <v>44394</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>76710</v>
+        <v>76406</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02895507187434694</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02256544103459564</v>
+        <v>0.02188645411763748</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03781835430697425</v>
+        <v>0.03766820229809763</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>71764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56510</v>
+        <v>55508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90329</v>
+        <v>89746</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07126758927538157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05611917300143432</v>
+        <v>0.05512433859833202</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08970430050613211</v>
+        <v>0.08912540231439868</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -3230,19 +3230,19 @@
         <v>55589</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42690</v>
+        <v>42694</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70984</v>
+        <v>71644</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05442241234591775</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04179482816166743</v>
+        <v>0.04179810186149132</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06949526729197582</v>
+        <v>0.0701405464020185</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -3251,19 +3251,19 @@
         <v>127352</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104536</v>
+        <v>106589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>149399</v>
+        <v>153587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0627849402006898</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05153662242590881</v>
+        <v>0.05254854460711149</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07365370644023125</v>
+        <v>0.0757183670424936</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>117892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96129</v>
+        <v>98337</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>137560</v>
+        <v>141771</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1170763916584415</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09546438592690834</v>
+        <v>0.09765657648981071</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.136608929902518</v>
+        <v>0.1407906580507864</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -3301,19 +3301,19 @@
         <v>91885</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75181</v>
+        <v>73020</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>110670</v>
+        <v>112814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08995721910816906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07360430432502889</v>
+        <v>0.07148835799694389</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1083478415090176</v>
+        <v>0.1104477230049184</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>199</v>
@@ -3322,19 +3322,19 @@
         <v>209777</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>183668</v>
+        <v>184438</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>237255</v>
+        <v>241738</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.103420113371592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09054840201553206</v>
+        <v>0.09092831891172641</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1169668806633744</v>
+        <v>0.1191772342125891</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>782832</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>757785</v>
+        <v>756016</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>810439</v>
+        <v>808008</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7774181818416291</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7525445509175792</v>
+        <v>0.7507872262918704</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8048345398933109</v>
+        <v>0.8024199513514966</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>769</v>
@@ -3372,19 +3372,19 @@
         <v>849699</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>825414</v>
+        <v>821851</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>870925</v>
+        <v>873643</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8318732537616554</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8080981656923456</v>
+        <v>0.8046096264234498</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8526543531922631</v>
+        <v>0.8553154607634034</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1481</v>
@@ -3393,19 +3393,19 @@
         <v>1632531</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1593371</v>
+        <v>1595821</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1666693</v>
+        <v>1668757</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8048398745533712</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7855340806969234</v>
+        <v>0.7867417542475761</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.821681990846146</v>
+        <v>0.8226996867675413</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>13548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7532</v>
+        <v>7542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22289</v>
+        <v>22319</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01826852659976905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01015645667364457</v>
+        <v>0.01016908215910101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03005459712591108</v>
+        <v>0.03009535180158059</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -3518,19 +3518,19 @@
         <v>8665</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3804</v>
+        <v>3946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16334</v>
+        <v>16696</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01125637215716684</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004941531379932924</v>
+        <v>0.005126395645078595</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02121916484691894</v>
+        <v>0.02168963442680538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -3539,19 +3539,19 @@
         <v>22213</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14041</v>
+        <v>14191</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32862</v>
+        <v>34126</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01469713373480603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009289838425410351</v>
+        <v>0.009389576997927156</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02174255611963118</v>
+        <v>0.02257916711173074</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>27570</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17748</v>
+        <v>17736</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>41457</v>
+        <v>40072</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0371750047549463</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02393134396494772</v>
+        <v>0.02391477995867861</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05590018206880347</v>
+        <v>0.05403278350060933</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>31</v>
@@ -3589,19 +3589,19 @@
         <v>33515</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23716</v>
+        <v>23503</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47087</v>
+        <v>46860</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04353928218454579</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03080957573518914</v>
+        <v>0.03053255085611224</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06117060222271484</v>
+        <v>0.06087509546054198</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>56</v>
@@ -3610,19 +3610,19 @@
         <v>61085</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>46708</v>
+        <v>47075</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>79412</v>
+        <v>78158</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04041642437694223</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03090412564803243</v>
+        <v>0.03114652976348018</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05254230725826661</v>
+        <v>0.05171243486740463</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>78391</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>62056</v>
+        <v>62495</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97320</v>
+        <v>99681</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1057034738548997</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08367722754958504</v>
+        <v>0.08426891405007306</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1312266356698419</v>
+        <v>0.1344109036744899</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -3660,19 +3660,19 @@
         <v>70256</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55730</v>
+        <v>55727</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89494</v>
+        <v>89714</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09126804630736732</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0723985013489962</v>
+        <v>0.07239345794842908</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1162608629694081</v>
+        <v>0.11654561314599</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>137</v>
@@ -3681,19 +3681,19 @@
         <v>148647</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127663</v>
+        <v>125917</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177978</v>
+        <v>176474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09835129937443918</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08446690294202959</v>
+        <v>0.08331186087759007</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1177580484030674</v>
+        <v>0.1167626800918772</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>622108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>597538</v>
+        <v>598957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>640562</v>
+        <v>641774</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.838852994790385</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.805723181076311</v>
+        <v>0.8076367053319818</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8637372976156231</v>
+        <v>0.8653712717234974</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>595</v>
@@ -3731,19 +3731,19 @@
         <v>657337</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>633347</v>
+        <v>635262</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>675505</v>
+        <v>677442</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8539362993509201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8227714825984227</v>
+        <v>0.8252583655042626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8775385070694712</v>
+        <v>0.8800538152273738</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1160</v>
@@ -3752,19 +3752,19 @@
         <v>1279446</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1247631</v>
+        <v>1248701</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1308974</v>
+        <v>1306893</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8465351425138126</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8254855863243968</v>
+        <v>0.8261931446642661</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8660724610450253</v>
+        <v>0.8646952243858365</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>25439</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17384</v>
+        <v>17760</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36481</v>
+        <v>38218</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02885664197756195</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01971919902830519</v>
+        <v>0.02014575443251566</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04138168071243928</v>
+        <v>0.04335241700296204</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -3877,19 +3877,19 @@
         <v>24158</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15754</v>
+        <v>16666</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35872</v>
+        <v>35874</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02522957576262215</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01645203846620459</v>
+        <v>0.01740442787015132</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.037462702801441</v>
+        <v>0.03746409811565251</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -3898,19 +3898,19 @@
         <v>49598</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36486</v>
+        <v>37372</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65721</v>
+        <v>63150</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0269681956211125</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01983879441106059</v>
+        <v>0.02032080993350696</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03573510638160072</v>
+        <v>0.03433718272506495</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>56343</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42697</v>
+        <v>42111</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71844</v>
+        <v>71772</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06391162258724141</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04843288199880064</v>
+        <v>0.04776804013724792</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08149456074619381</v>
+        <v>0.08141321480078195</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -3948,19 +3948,19 @@
         <v>57399</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43223</v>
+        <v>44130</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72365</v>
+        <v>74549</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05994363847200821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04513939139067583</v>
+        <v>0.04608675100801479</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07557352356758223</v>
+        <v>0.07785415493980927</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>112</v>
@@ -3969,19 +3969,19 @@
         <v>113742</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>94324</v>
+        <v>94148</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>135208</v>
+        <v>135661</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06184567597893396</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05128760687683593</v>
+        <v>0.05119188430859052</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0735176077087587</v>
+        <v>0.07376402859670991</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>146406</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>126140</v>
+        <v>127049</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>173242</v>
+        <v>170473</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1660731209240959</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1430841063569591</v>
+        <v>0.1441152853150805</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1965134382477518</v>
+        <v>0.193373419631116</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>116</v>
@@ -4019,19 +4019,19 @@
         <v>121838</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>102501</v>
+        <v>103503</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>143951</v>
+        <v>144709</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1272400096008904</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1070451318176879</v>
+        <v>0.1080919441575433</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1503327292765268</v>
+        <v>0.1511253578941895</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>260</v>
@@ -4040,19 +4040,19 @@
         <v>268244</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>237720</v>
+        <v>240599</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>297705</v>
+        <v>301497</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1458545080722431</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1292573439203484</v>
+        <v>0.1308228654490347</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1618732927411211</v>
+        <v>0.1639355115812016</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>653388</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>625639</v>
+        <v>628091</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>678918</v>
+        <v>679144</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7411586145111008</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7096824319678128</v>
+        <v>0.712464251079811</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7701181411244303</v>
+        <v>0.770374835966781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>716</v>
@@ -4090,19 +4090,19 @@
         <v>754151</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>727016</v>
+        <v>726660</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>777998</v>
+        <v>778942</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7875867761644793</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7592493569465407</v>
+        <v>0.7588771527489634</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8124915243851794</v>
+        <v>0.8134778080604608</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1338</v>
@@ -4111,19 +4111,19 @@
         <v>1407538</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1368817</v>
+        <v>1370588</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1443866</v>
+        <v>1442087</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7653316203277104</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7442776530785526</v>
+        <v>0.7452402267890547</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7850845525289954</v>
+        <v>0.7841171871421831</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>91982</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74175</v>
+        <v>72257</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>112008</v>
+        <v>109182</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02762282451287267</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02227528437865558</v>
+        <v>0.02169909725964721</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03363661234568329</v>
+        <v>0.03278782857078136</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>66</v>
@@ -4236,19 +4236,19 @@
         <v>68291</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>54476</v>
+        <v>53313</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>84866</v>
+        <v>87640</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01988063993326169</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01585883678520267</v>
+        <v>0.01552010575317969</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02470580918692596</v>
+        <v>0.02551330992396634</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>157</v>
@@ -4257,19 +4257,19 @@
         <v>160274</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>138012</v>
+        <v>138210</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>188770</v>
+        <v>184700</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02369158100778317</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02040085843112337</v>
+        <v>0.02043008295294518</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02790393125866128</v>
+        <v>0.02730226370993438</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>208272</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>179619</v>
+        <v>178194</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>238159</v>
+        <v>237699</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0625452745870943</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05394051066693516</v>
+        <v>0.05351262931105633</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07152032081852618</v>
+        <v>0.07138214603280618</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>169</v>
@@ -4307,19 +4307,19 @@
         <v>176692</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>152451</v>
+        <v>154356</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>206930</v>
+        <v>205588</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0514376751612753</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04438087308856066</v>
+        <v>0.04493551142937878</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06024039575544212</v>
+        <v>0.05984975303885838</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>366</v>
@@ -4328,19 +4328,19 @@
         <v>384964</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>348964</v>
+        <v>351337</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>425829</v>
+        <v>425856</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05690517680191841</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05158370358867292</v>
+        <v>0.05193440477834366</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06294583405622696</v>
+        <v>0.06294980471765198</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>427529</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>391718</v>
+        <v>390754</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>466773</v>
+        <v>465943</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1283891142832928</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1176349505226534</v>
+        <v>0.1173455685809909</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1401745177353827</v>
+        <v>0.1399250175159437</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>334</v>
@@ -4378,19 +4378,19 @@
         <v>358609</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>324248</v>
+        <v>321898</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>393889</v>
+        <v>395109</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.104396574303682</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0943937236993635</v>
+        <v>0.09370934441322297</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1146671410135115</v>
+        <v>0.1150223660846015</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>749</v>
@@ -4399,19 +4399,19 @@
         <v>786138</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>732018</v>
+        <v>732436</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>844525</v>
+        <v>848994</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1162064394845237</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1082065135661792</v>
+        <v>0.1082682518340568</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1248372850118146</v>
+        <v>0.1254977939191475</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>2602162</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2556033</v>
+        <v>2557307</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2654719</v>
+        <v>2656433</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7814427866167403</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7675900350074302</v>
+        <v>0.7679728593037691</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7972260188794035</v>
+        <v>0.7977408342993136</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2611</v>
@@ -4449,19 +4449,19 @@
         <v>2831472</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2783381</v>
+        <v>2785611</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2870775</v>
+        <v>2878468</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.824285110601781</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8102849291298236</v>
+        <v>0.8109343633778445</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8357268773523792</v>
+        <v>0.8379664135811662</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5027</v>
@@ -4470,19 +4470,19 @@
         <v>5433634</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5360404</v>
+        <v>5361270</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5499921</v>
+        <v>5496366</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8031968027057746</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7923719712268537</v>
+        <v>0.7925000070357049</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8129953298185482</v>
+        <v>0.8124699424084111</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>16649</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9395</v>
+        <v>9648</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28352</v>
+        <v>28556</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02555332077178011</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01441930145381734</v>
+        <v>0.01480816828944562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04351636734974348</v>
+        <v>0.04382970839418206</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4835,19 +4835,19 @@
         <v>9382</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4707</v>
+        <v>4217</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18192</v>
+        <v>17718</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01435993989051576</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00720447753809111</v>
+        <v>0.006454457786229134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02784306012047414</v>
+        <v>0.02711764082305375</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -4856,19 +4856,19 @@
         <v>26031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16779</v>
+        <v>16836</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38333</v>
+        <v>39208</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01994873162235823</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01285825210358306</v>
+        <v>0.01290179849008548</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02937641021917216</v>
+        <v>0.03004690358330935</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>43550</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31091</v>
+        <v>32747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56485</v>
+        <v>58601</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06684263686215795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04772089261942421</v>
+        <v>0.05026230425223562</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08669562252812046</v>
+        <v>0.08994377668670006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -4906,19 +4906,19 @@
         <v>22529</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15091</v>
+        <v>15054</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32136</v>
+        <v>34347</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0344808489254439</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02309659773412636</v>
+        <v>0.02304032307168781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04918491783531208</v>
+        <v>0.05256842902702511</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -4927,19 +4927,19 @@
         <v>66079</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50800</v>
+        <v>51997</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>83070</v>
+        <v>83131</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05063890651026874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03892992629512938</v>
+        <v>0.03984776855022258</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06366061829697531</v>
+        <v>0.06370679952282711</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>123577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>103586</v>
+        <v>104336</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>143827</v>
+        <v>143027</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1896722278104633</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1589892499931597</v>
+        <v>0.1601409163186981</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2207544471076139</v>
+        <v>0.2195258613150289</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>96</v>
@@ -4977,19 +4977,19 @@
         <v>95715</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>79893</v>
+        <v>79222</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>114699</v>
+        <v>116096</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.146494353581342</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1222785041965452</v>
+        <v>0.1212517255160924</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.175549908129759</v>
+        <v>0.1776884619679219</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>212</v>
@@ -4998,19 +4998,19 @@
         <v>219291</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>193565</v>
+        <v>193459</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>249106</v>
+        <v>248332</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1680528218448636</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1483376480452952</v>
+        <v>0.1482566315456233</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1909012638121978</v>
+        <v>0.1903078410268762</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>467752</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>444847</v>
+        <v>444526</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>490811</v>
+        <v>489721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7179318145555987</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6827764184560309</v>
+        <v>0.6822839845936849</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7533234434808926</v>
+        <v>0.7516515588977433</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>520</v>
@@ -5048,19 +5048,19 @@
         <v>525743</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>504775</v>
+        <v>503567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>543773</v>
+        <v>544813</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8046648576026983</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7725728824154994</v>
+        <v>0.7707234427535969</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8322598997367704</v>
+        <v>0.8338514044573636</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>979</v>
@@ -5069,19 +5069,19 @@
         <v>993495</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>960921</v>
+        <v>961984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1021836</v>
+        <v>1024102</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7613595400225095</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7363966697649794</v>
+        <v>0.7372114108442654</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7830782747699352</v>
+        <v>0.7848153733265484</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>28761</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19332</v>
+        <v>18555</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43327</v>
+        <v>41638</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02841258558618937</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01909794634380212</v>
+        <v>0.01833028430175668</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04280277006959886</v>
+        <v>0.04113454081660468</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>27</v>
@@ -5194,19 +5194,19 @@
         <v>27950</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18661</v>
+        <v>18415</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>39997</v>
+        <v>40013</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02732131737669658</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01824094214756806</v>
+        <v>0.01800116800758724</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03909736928267202</v>
+        <v>0.03911321215090104</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>53</v>
@@ -5215,19 +5215,19 @@
         <v>56710</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>42316</v>
+        <v>43101</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>73677</v>
+        <v>73105</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02786406736968632</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02079155416514532</v>
+        <v>0.02117722421980122</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0362004632832136</v>
+        <v>0.03591944912857714</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>68445</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53749</v>
+        <v>52201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86678</v>
+        <v>87301</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06761675144525783</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05309876933666347</v>
+        <v>0.05156983541115821</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08562962797241468</v>
+        <v>0.08624465015509962</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -5265,19 +5265,19 @@
         <v>50787</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37890</v>
+        <v>37952</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66579</v>
+        <v>67141</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04964479406305009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03703826357831049</v>
+        <v>0.03709888964478233</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06508150995399352</v>
+        <v>0.06563146171183522</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>112</v>
@@ -5286,19 +5286,19 @@
         <v>119232</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96649</v>
+        <v>98275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>141105</v>
+        <v>140571</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05858327468436209</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04748720286298885</v>
+        <v>0.04828624900422285</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06933057802064958</v>
+        <v>0.06906812706952058</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>190980</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167015</v>
+        <v>165597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>218159</v>
+        <v>215991</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1886688366826462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1649937852864301</v>
+        <v>0.1635931429339542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2155188277687079</v>
+        <v>0.2133774220662374</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>166</v>
@@ -5336,19 +5336,19 @@
         <v>177615</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>154544</v>
+        <v>151510</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>205369</v>
+        <v>204914</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1736204663973485</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.15106868838606</v>
+        <v>0.1481026590834682</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2007506269627422</v>
+        <v>0.2003057028863298</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>339</v>
@@ -5357,19 +5357,19 @@
         <v>368594</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>334025</v>
+        <v>333371</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>405144</v>
+        <v>402277</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1811048802158803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1641196105460753</v>
+        <v>0.1637981000876081</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1990633565170585</v>
+        <v>0.1976544334483978</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>724063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>694278</v>
+        <v>695157</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>753350</v>
+        <v>754602</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7153018262859067</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6858772033302968</v>
+        <v>0.6867452626872371</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7442343899222564</v>
+        <v>0.745471234324073</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>716</v>
@@ -5407,19 +5407,19 @@
         <v>766654</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>734891</v>
+        <v>736488</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>791937</v>
+        <v>794608</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7494134221629049</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7183640920093012</v>
+        <v>0.7199254128901335</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7741272741194838</v>
+        <v>0.7767386661867609</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1394</v>
@@ -5428,19 +5428,19 @@
         <v>1490717</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1448957</v>
+        <v>1449125</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1529755</v>
+        <v>1527906</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7324477777300713</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7119295619093675</v>
+        <v>0.7120120561521229</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7516285851834734</v>
+        <v>0.7507198512430246</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>61085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48235</v>
+        <v>47278</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78738</v>
+        <v>77726</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08173359834721403</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06453906324759112</v>
+        <v>0.06325900301899827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1053530409952014</v>
+        <v>0.1039987271845276</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -5553,19 +5553,19 @@
         <v>57061</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44055</v>
+        <v>43639</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>71945</v>
+        <v>74135</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07469688018087563</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05767111295323978</v>
+        <v>0.05712577583037032</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09418035264323378</v>
+        <v>0.09704809487090431</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>110</v>
@@ -5574,19 +5574,19 @@
         <v>118147</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97235</v>
+        <v>98337</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>140163</v>
+        <v>140192</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07817675582407911</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06433967881816866</v>
+        <v>0.06506888655879489</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09274471753358011</v>
+        <v>0.09276381978815822</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>111257</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>92639</v>
+        <v>90734</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>131967</v>
+        <v>132063</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1488646631359076</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1239526786826073</v>
+        <v>0.121403307120129</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1765751318949829</v>
+        <v>0.1767027898674067</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>116</v>
@@ -5624,19 +5624,19 @@
         <v>118506</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>100332</v>
+        <v>98841</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>139510</v>
+        <v>138610</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1551322486145042</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1313416749377113</v>
+        <v>0.1293887076403428</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1826280287587266</v>
+        <v>0.1814499987895619</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>215</v>
@@ -5645,19 +5645,19 @@
         <v>229764</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>202368</v>
+        <v>202419</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>261158</v>
+        <v>262746</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1520327329691286</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1339055058661829</v>
+        <v>0.1339390403041505</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1728058871059313</v>
+        <v>0.1738566960295683</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>145736</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125218</v>
+        <v>123294</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>169420</v>
+        <v>168422</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1949980518047872</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1675444293670958</v>
+        <v>0.1649700210989997</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2266872485962279</v>
+        <v>0.2253523132215391</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>138</v>
@@ -5695,19 +5695,19 @@
         <v>144296</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122601</v>
+        <v>124179</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>165096</v>
+        <v>165750</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1888934533165525</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1604923522195226</v>
+        <v>0.1625584862939876</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2161219176482679</v>
+        <v>0.2169779060372281</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>273</v>
@@ -5716,19 +5716,19 @@
         <v>290033</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>262204</v>
+        <v>261363</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>322121</v>
+        <v>321067</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1919123668339883</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1734984752900559</v>
+        <v>0.1729415465450021</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2131450211919388</v>
+        <v>0.2124476568639748</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>429294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>402399</v>
+        <v>402051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>458515</v>
+        <v>457400</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5744036867120912</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5384175190812837</v>
+        <v>0.537952869887428</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6135021456102299</v>
+        <v>0.6120101008191579</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>408</v>
@@ -5766,19 +5766,19 @@
         <v>444040</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>417196</v>
+        <v>416630</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>472285</v>
+        <v>472276</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5812774178880677</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5461360934203775</v>
+        <v>0.5453964064156764</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6182524236870718</v>
+        <v>0.6182404131522478</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>804</v>
@@ -5787,19 +5787,19 @@
         <v>873334</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>830464</v>
+        <v>834673</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>917417</v>
+        <v>913321</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5778781443728039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5495112379851868</v>
+        <v>0.5522967271220461</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6070476166516857</v>
+        <v>0.6043370337259272</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>19154</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11164</v>
+        <v>12079</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28948</v>
+        <v>29135</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02102448235308458</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01225370092648416</v>
+        <v>0.01325814024201483</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03177515499280081</v>
+        <v>0.03198053334137443</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -5912,19 +5912,19 @@
         <v>28084</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18904</v>
+        <v>19059</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39188</v>
+        <v>40841</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02778860694556544</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01870524988608226</v>
+        <v>0.01885900394046957</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03877622054691229</v>
+        <v>0.04041113006140145</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -5933,19 +5933,19 @@
         <v>47238</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34479</v>
+        <v>34967</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63041</v>
+        <v>61989</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02458182551603917</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01794207013163024</v>
+        <v>0.01819640589250498</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03280569592456008</v>
+        <v>0.0322582838263872</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>61102</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45763</v>
+        <v>46772</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>76707</v>
+        <v>76261</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06706933157838174</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05023241004379658</v>
+        <v>0.05133917635679636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08419788012476827</v>
+        <v>0.08370794191155512</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -5983,19 +5983,19 @@
         <v>60108</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46413</v>
+        <v>45570</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>77099</v>
+        <v>78948</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05947573017815524</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04592464784933306</v>
+        <v>0.04509096391826581</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07628817372796665</v>
+        <v>0.0781184016491822</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -6004,19 +6004,19 @@
         <v>121210</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99732</v>
+        <v>100629</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>144836</v>
+        <v>143325</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06307575552076057</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05189911460407855</v>
+        <v>0.05236560156798595</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07537045539008561</v>
+        <v>0.0745839257493164</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>138827</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>119445</v>
+        <v>117302</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>161881</v>
+        <v>164055</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1523837094108011</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1311094984728107</v>
+        <v>0.1287576253626908</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1776896923118932</v>
+        <v>0.1800762255412253</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>133</v>
@@ -6054,19 +6054,19 @@
         <v>142518</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>119825</v>
+        <v>119722</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>165168</v>
+        <v>167276</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1410199247545074</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1185647788911713</v>
+        <v>0.1184634362681492</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1634316660780186</v>
+        <v>0.1655171071383345</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>271</v>
@@ -6075,19 +6075,19 @@
         <v>281345</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>248761</v>
+        <v>250206</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>312488</v>
+        <v>313062</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1464073437925078</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1294510156290262</v>
+        <v>0.1302029642527714</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1626135480337978</v>
+        <v>0.16291217119231</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>691950</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>665170</v>
+        <v>664653</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>717116</v>
+        <v>717310</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7595224766577325</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7301276931213041</v>
+        <v>0.7295592330462721</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7871456773154493</v>
+        <v>0.7873590366359777</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>712</v>
@@ -6125,19 +6125,19 @@
         <v>779916</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>751168</v>
+        <v>749022</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>805309</v>
+        <v>806107</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7717157381217719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7432704323661122</v>
+        <v>0.7411463627663902</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.796841516226678</v>
+        <v>0.7976314270891095</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1401</v>
@@ -6146,19 +6146,19 @@
         <v>1471866</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1432879</v>
+        <v>1435638</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1507433</v>
+        <v>1507109</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7659350751706925</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7456467263761318</v>
+        <v>0.7470825228292849</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.784443535097971</v>
+        <v>0.7842751627560395</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>125649</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>105235</v>
+        <v>104056</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>150419</v>
+        <v>149500</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03782116472884601</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03167639031859146</v>
+        <v>0.03132163715030274</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04527713170031191</v>
+        <v>0.04500063085859681</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>118</v>
@@ -6271,19 +6271,19 @@
         <v>122477</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>103454</v>
+        <v>102589</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>146879</v>
+        <v>145781</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03549136532568873</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02997867983622112</v>
+        <v>0.02972813989759612</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04256236972793501</v>
+        <v>0.04224427447695479</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>232</v>
@@ -6292,19 +6292,19 @@
         <v>248126</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>214707</v>
+        <v>218736</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>280392</v>
+        <v>280260</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03663412604613864</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03170007192415207</v>
+        <v>0.0322948189418357</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04139794023388423</v>
+        <v>0.04137847580072822</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>284355</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>254260</v>
+        <v>254712</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>316981</v>
+        <v>318981</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08559272530471021</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0765341323527418</v>
+        <v>0.0766702365936115</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09541353002880326</v>
+        <v>0.09601539629697367</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>243</v>
@@ -6342,19 +6342,19 @@
         <v>251929</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>220887</v>
+        <v>223199</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>285126</v>
+        <v>285641</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07300388527813013</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06400846433224029</v>
+        <v>0.0646783927968073</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08262347188074562</v>
+        <v>0.08277274663960942</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>509</v>
@@ -6363,19 +6363,19 @@
         <v>536284</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>493460</v>
+        <v>493024</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>587655</v>
+        <v>582344</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07917867950243448</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07285594853890791</v>
+        <v>0.07279170367781483</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0867632595230278</v>
+        <v>0.08597910598252125</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>599119</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>557072</v>
+        <v>554603</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>644754</v>
+        <v>644025</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1803390907778743</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1676826937921883</v>
+        <v>0.1669394885434062</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1940754762195127</v>
+        <v>0.193855886935449</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>533</v>
@@ -6413,19 +6413,19 @@
         <v>560144</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>518725</v>
+        <v>516860</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>604829</v>
+        <v>603004</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.162318145413779</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1503155098500836</v>
+        <v>0.14977507478051</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1752667805975445</v>
+        <v>0.1747380299389788</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1095</v>
@@ -6434,19 +6434,19 @@
         <v>1159264</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1097568</v>
+        <v>1100771</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1226403</v>
+        <v>1227640</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1711573735806135</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.162048478260921</v>
+        <v>0.1625213385983937</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.18107009406222</v>
+        <v>0.1812526161031519</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>2313059</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2257209</v>
+        <v>2259159</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2365423</v>
+        <v>2367953</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6962470191885695</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6794355506002212</v>
+        <v>0.6800227817948939</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7120089717287361</v>
+        <v>0.7127704546408619</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2356</v>
@@ -6484,19 +6484,19 @@
         <v>2516354</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2464137</v>
+        <v>2464492</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2571769</v>
+        <v>2567714</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7291866039824021</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7140553435388567</v>
+        <v>0.714158174067737</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7452447854989019</v>
+        <v>0.7440696279116832</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4578</v>
@@ -6505,19 +6505,19 @@
         <v>4829412</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4748399</v>
+        <v>4757555</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4902624</v>
+        <v>4901919</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7130298208708133</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7010687896203477</v>
+        <v>0.7024205600484443</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7238389612447402</v>
+        <v>0.7237349696660628</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>7330</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3814</v>
+        <v>3350</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13498</v>
+        <v>13435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01066337648436228</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005548534742773615</v>
+        <v>0.004873164596030363</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01963535305268074</v>
+        <v>0.01954380801735552</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6870,19 +6870,19 @@
         <v>2410</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7566</v>
+        <v>7245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003305955208601783</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0007575476488302482</v>
+        <v>0.0007544583470936606</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01037710455947066</v>
+        <v>0.009937728872631836</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -6891,19 +6891,19 @@
         <v>9741</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5509</v>
+        <v>5081</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17576</v>
+        <v>16915</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00687656214288961</v>
+        <v>0.006876562142889611</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003889089691983723</v>
+        <v>0.003587025672104137</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0124078591765597</v>
+        <v>0.0119415965659409</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>40694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30356</v>
+        <v>28802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55462</v>
+        <v>55721</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05919682284710879</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04415846375697557</v>
+        <v>0.04189717694964863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0806786429032272</v>
+        <v>0.08105495644829355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -6941,19 +6941,19 @@
         <v>24902</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17839</v>
+        <v>17913</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35443</v>
+        <v>34509</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03415653023688065</v>
+        <v>0.03415653023688067</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02446830854561295</v>
+        <v>0.0245703935004436</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04861425300655051</v>
+        <v>0.0473334443586377</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -6962,19 +6962,19 @@
         <v>65597</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51357</v>
+        <v>51405</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84735</v>
+        <v>84640</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04630875573540427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03625581213862453</v>
+        <v>0.03629012295452065</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05981957369825881</v>
+        <v>0.05975219377854858</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>69365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54061</v>
+        <v>54931</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86915</v>
+        <v>87356</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1009036771590308</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.078641467965912</v>
+        <v>0.0799057570497603</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1264329348672075</v>
+        <v>0.1270733611085963</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -7012,19 +7012,19 @@
         <v>55717</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>45792</v>
+        <v>46201</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>68026</v>
+        <v>68786</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.0764222746910049</v>
+        <v>0.07642227469100492</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06280855402432239</v>
+        <v>0.06336972066137099</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09330523160823896</v>
+        <v>0.09434822321542613</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>174</v>
@@ -7033,19 +7033,19 @@
         <v>125082</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>108379</v>
+        <v>107141</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>148057</v>
+        <v>146199</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08830326697581721</v>
+        <v>0.08830326697581722</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07651107353412599</v>
+        <v>0.07563728396531492</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1045224737791537</v>
+        <v>0.1032105130768812</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>570052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>546979</v>
+        <v>548249</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>588432</v>
+        <v>588778</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8292361235094982</v>
+        <v>0.8292361235094979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7956723369396365</v>
+        <v>0.7975204172314806</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8559733041221204</v>
+        <v>0.8564771835303937</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1092</v>
@@ -7083,19 +7083,19 @@
         <v>646037</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>631806</v>
+        <v>630065</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>658307</v>
+        <v>658258</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8861152398635127</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8665958641001599</v>
+        <v>0.8642070021447374</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9029444062535575</v>
+        <v>0.902877734995322</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1700</v>
@@ -7104,19 +7104,19 @@
         <v>1216089</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1188208</v>
+        <v>1190477</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1238346</v>
+        <v>1238747</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8585114151458889</v>
+        <v>0.8585114151458887</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8388285513187623</v>
+        <v>0.8404304756777595</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8742238578259475</v>
+        <v>0.8745070328977127</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>2252</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6606</v>
+        <v>5991</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002158392559679981</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0005734779098684692</v>
+        <v>0.0005842886559094201</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.006330311918161216</v>
+        <v>0.005741660325832103</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -7229,19 +7229,19 @@
         <v>14639</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8896</v>
+        <v>8889</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24479</v>
+        <v>23745</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01379569899787894</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008383838152075287</v>
+        <v>0.008377159906332313</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02306854414803553</v>
+        <v>0.02237662257503726</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>21</v>
@@ -7250,19 +7250,19 @@
         <v>16891</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10680</v>
+        <v>10212</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26648</v>
+        <v>25899</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.008025908323225299</v>
+        <v>0.008025908323225297</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00507468084321329</v>
+        <v>0.004852199862344472</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01266158235676401</v>
+        <v>0.01230584197784873</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>54761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38101</v>
+        <v>40706</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73799</v>
+        <v>76090</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05247984548677399</v>
+        <v>0.052479845486774</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03651316885942319</v>
+        <v>0.03900971318036397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0707246433995838</v>
+        <v>0.07291958852546597</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -7300,19 +7300,19 @@
         <v>39729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29917</v>
+        <v>29181</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54751</v>
+        <v>55568</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03743959170852887</v>
+        <v>0.03743959170852888</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02819329742678809</v>
+        <v>0.02749926481327705</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05159584670072095</v>
+        <v>0.05236570568424009</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -7321,19 +7321,19 @@
         <v>94490</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75208</v>
+        <v>76159</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118387</v>
+        <v>118687</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04489656780991383</v>
+        <v>0.04489656780991384</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0357348173676879</v>
+        <v>0.03618640494259774</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05625111021598882</v>
+        <v>0.05639365290390201</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>123448</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101383</v>
+        <v>100208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>155120</v>
+        <v>149523</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1183048038854561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09715925972358493</v>
+        <v>0.09603272666864213</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1486576394452958</v>
+        <v>0.1432934650167353</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -7371,19 +7371,19 @@
         <v>112319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>94781</v>
+        <v>93061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131936</v>
+        <v>131794</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1058463447425708</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08931897410284113</v>
+        <v>0.08769894735205977</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1243335444545064</v>
+        <v>0.1241991582398455</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>257</v>
@@ -7392,19 +7392,19 @@
         <v>235767</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>202869</v>
+        <v>205006</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>267304</v>
+        <v>270342</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.112023263926139</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09639211336351249</v>
+        <v>0.09740761897430299</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1270079048246449</v>
+        <v>0.1284515754511149</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>863012</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>831567</v>
+        <v>831828</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>889558</v>
+        <v>893099</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8270569580680899</v>
+        <v>0.82705695806809</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7969219289149241</v>
+        <v>0.7971722019506535</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8524967080766905</v>
+        <v>0.8558895715979997</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1279</v>
@@ -7442,19 +7442,19 @@
         <v>894460</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>870495</v>
+        <v>870803</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>914166</v>
+        <v>918398</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8429183645510212</v>
+        <v>0.8429183645510214</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8203340956912425</v>
+        <v>0.8206242918557489</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8614886399189973</v>
+        <v>0.8654769609283579</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2091</v>
@@ -7463,19 +7463,19 @@
         <v>1757473</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1722113</v>
+        <v>1719327</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1795065</v>
+        <v>1792763</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8350542599407218</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8182532288549611</v>
+        <v>0.8169295863651586</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8529160787928904</v>
+        <v>0.8518222184542092</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>4925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1815</v>
+        <v>1944</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10769</v>
+        <v>12411</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006152179487819844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002267037579662619</v>
+        <v>0.0024285156184845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01345248453887833</v>
+        <v>0.01550326810663918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -7588,19 +7588,19 @@
         <v>14072</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7766</v>
+        <v>6729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25154</v>
+        <v>25195</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01742978796984329</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009618630765065563</v>
+        <v>0.008334790842778314</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03115529035699557</v>
+        <v>0.03120695209907216</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -7609,19 +7609,19 @@
         <v>18997</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11251</v>
+        <v>11479</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32994</v>
+        <v>31065</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01181497388899722</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006997528481786804</v>
+        <v>0.007139326011956183</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02052023677431109</v>
+        <v>0.01932048925672784</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>55426</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>40056</v>
+        <v>40369</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>74836</v>
+        <v>75919</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06923663847603422</v>
+        <v>0.0692366384760342</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05003766399339966</v>
+        <v>0.05042792543504345</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09348334401749722</v>
+        <v>0.09483594250590097</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -7659,19 +7659,19 @@
         <v>31836</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22631</v>
+        <v>23722</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>43344</v>
+        <v>42805</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03943169263258343</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02803094030649428</v>
+        <v>0.02938232204988812</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05368517610645882</v>
+        <v>0.05301808376224167</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>85</v>
@@ -7680,19 +7680,19 @@
         <v>87262</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>68476</v>
+        <v>66988</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>108321</v>
+        <v>108958</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.05427076333338115</v>
+        <v>0.05427076333338116</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04258739018667375</v>
+        <v>0.04166196309390254</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06736835154864189</v>
+        <v>0.06776442258372199</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>140911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117244</v>
+        <v>117915</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>169302</v>
+        <v>168547</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1760224918774667</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1464592763873004</v>
+        <v>0.1472968127119616</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2114890507920793</v>
+        <v>0.210545064889422</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -7730,19 +7730,19 @@
         <v>116879</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>99229</v>
+        <v>99535</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>137383</v>
+        <v>137974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1447658398740925</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1229045858803123</v>
+        <v>0.1232836199617284</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1701618064737405</v>
+        <v>0.1708931809846919</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>260</v>
@@ -7751,19 +7751,19 @@
         <v>257790</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>226701</v>
+        <v>228104</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>291489</v>
+        <v>291845</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1603276755299764</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1409923272537439</v>
+        <v>0.1418650082092724</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1812863070808271</v>
+        <v>0.1815079613245248</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>599265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>569188</v>
+        <v>569964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>626381</v>
+        <v>626351</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7485886901586793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7110171602770502</v>
+        <v>0.7119874092825961</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7824615587563686</v>
+        <v>0.7824243362045619</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>838</v>
@@ -7801,19 +7801,19 @@
         <v>644580</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>621745</v>
+        <v>620990</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>664782</v>
+        <v>665281</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7983726795234808</v>
+        <v>0.7983726795234809</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7700895533655652</v>
+        <v>0.769154609177311</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8233952503767841</v>
+        <v>0.8240126575338118</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1352</v>
@@ -7822,19 +7822,19 @@
         <v>1243844</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1203845</v>
+        <v>1207628</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1275494</v>
+        <v>1279204</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7735865872476452</v>
+        <v>0.7735865872476453</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7487098249357331</v>
+        <v>0.7510623657299944</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7932703458020786</v>
+        <v>0.7955776685210368</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>29533</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18481</v>
+        <v>19311</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46766</v>
+        <v>48222</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02986313176120293</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0186880152581106</v>
+        <v>0.01952669415027328</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04728887708125369</v>
+        <v>0.04876156003565141</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -7947,19 +7947,19 @@
         <v>14122</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8439</v>
+        <v>8456</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23417</v>
+        <v>21690</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01265326292124446</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007561540247626338</v>
+        <v>0.007576565596577107</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02098175816837896</v>
+        <v>0.01943410756210548</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -7968,19 +7968,19 @@
         <v>43655</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30782</v>
+        <v>31606</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61996</v>
+        <v>63300</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02073849439664855</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01462328751682207</v>
+        <v>0.01501479304668046</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02945164455112904</v>
+        <v>0.03007108766003437</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>78949</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62425</v>
+        <v>61016</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>100378</v>
+        <v>103292</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07983118357152533</v>
+        <v>0.07983118357152534</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06312324898548237</v>
+        <v>0.06169777367849464</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1014999058181889</v>
+        <v>0.1044470858900163</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>91</v>
@@ -8018,19 +8018,19 @@
         <v>67175</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>54207</v>
+        <v>53758</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84567</v>
+        <v>82629</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06018863140583908</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04856887530677547</v>
+        <v>0.04816727423774581</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07577112967391524</v>
+        <v>0.07403495570956431</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>157</v>
@@ -8039,19 +8039,19 @@
         <v>146124</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>121033</v>
+        <v>124870</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>173359</v>
+        <v>172393</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06941674246840175</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05749716270091391</v>
+        <v>0.0593202248465364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08235472178179014</v>
+        <v>0.08189614494489916</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>114533</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>94163</v>
+        <v>92736</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>140894</v>
+        <v>138948</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1158138309654609</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09521563807262515</v>
+        <v>0.09377309233487974</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1424695571013045</v>
+        <v>0.1405015669894156</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>162</v>
@@ -8089,19 +8089,19 @@
         <v>111134</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>93813</v>
+        <v>94423</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>129314</v>
+        <v>129176</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.09957560467314305</v>
+        <v>0.09957560467314304</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08405573789306527</v>
+        <v>0.08460224287272031</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1158649669724855</v>
+        <v>0.1157411542403018</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>266</v>
@@ -8110,19 +8110,19 @@
         <v>225668</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>199026</v>
+        <v>197292</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>259230</v>
+        <v>252612</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1072043564982906</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09454822702716445</v>
+        <v>0.09372411773250965</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1231481494717129</v>
+        <v>0.120004299871855</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>765929</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>735298</v>
+        <v>734266</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>792259</v>
+        <v>793862</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.774491853701811</v>
+        <v>0.7744918537018108</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7435180615159187</v>
+        <v>0.7424745470938547</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8011161201717986</v>
+        <v>0.8027366947659406</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1287</v>
@@ -8160,19 +8160,19 @@
         <v>923647</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>898791</v>
+        <v>901185</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>945787</v>
+        <v>945096</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8275825009997733</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8053115871714525</v>
+        <v>0.8074560874899011</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8474193276844726</v>
+        <v>0.8468006661782098</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2098</v>
@@ -8181,19 +8181,19 @@
         <v>1689577</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1650403</v>
+        <v>1648962</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1725109</v>
+        <v>1722338</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8026404066366591</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7840302737515039</v>
+        <v>0.7833457417942077</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8195196916757231</v>
+        <v>0.8182036896272128</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>44041</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>30840</v>
+        <v>31994</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62374</v>
+        <v>63515</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01251017219865751</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.008760470243782778</v>
+        <v>0.009088318626246785</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01771784482789876</v>
+        <v>0.01804200140605195</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>52</v>
@@ -8306,19 +8306,19 @@
         <v>45244</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>33638</v>
+        <v>32952</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62109</v>
+        <v>61183</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01218307542602174</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00905789238013352</v>
+        <v>0.008873120247814505</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01672435207995141</v>
+        <v>0.01647507101652805</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>94</v>
@@ -8327,19 +8327,19 @@
         <v>89284</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>71158</v>
+        <v>71284</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>110223</v>
+        <v>112666</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01234225421716854</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009836540506438719</v>
+        <v>0.009854020257143591</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0152367580853868</v>
+        <v>0.01557440885275614</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>229830</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>196037</v>
+        <v>195903</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>268708</v>
+        <v>266971</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06528546875972069</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05568619460341546</v>
+        <v>0.05564814380466781</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07632920480931329</v>
+        <v>0.07583567740042352</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>222</v>
@@ -8377,19 +8377,19 @@
         <v>163642</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>141386</v>
+        <v>143687</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>187705</v>
+        <v>188852</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04406499846116587</v>
+        <v>0.04406499846116588</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03807199534996909</v>
+        <v>0.03869142372169533</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05054449384453518</v>
+        <v>0.05085345089184139</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>412</v>
@@ -8398,19 +8398,19 @@
         <v>393473</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>353165</v>
+        <v>352549</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>436196</v>
+        <v>437425</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05439175522636294</v>
+        <v>0.05439175522636295</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04881983116614431</v>
+        <v>0.04873465953683156</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06029764795105196</v>
+        <v>0.0604674762277574</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>448257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>405182</v>
+        <v>404094</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>497710</v>
+        <v>498965</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.127331890762004</v>
+        <v>0.1273318907620039</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1150958673187055</v>
+        <v>0.1147869336929854</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1413794261093503</v>
+        <v>0.1417358428683006</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>568</v>
@@ -8448,19 +8448,19 @@
         <v>396049</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>365037</v>
+        <v>362670</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>435674</v>
+        <v>431631</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1066465082914834</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09829580784995839</v>
+        <v>0.09765821947806985</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1173165916861757</v>
+        <v>0.1162278512606421</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>957</v>
@@ -8469,19 +8469,19 @@
         <v>844306</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>787145</v>
+        <v>790607</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>899781</v>
+        <v>902544</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1167128692327244</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1088111142957792</v>
+        <v>0.1092896603436127</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1243813548749706</v>
+        <v>0.1247634126917665</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>2798258</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2740952</v>
+        <v>2740866</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2853380</v>
+        <v>2853423</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7948724682796178</v>
+        <v>0.7948724682796179</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7785940525383521</v>
+        <v>0.7785697657706304</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8105303201379309</v>
+        <v>0.810542631308693</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4496</v>
@@ -8519,19 +8519,19 @@
         <v>3108726</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3065726</v>
+        <v>3063591</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3144968</v>
+        <v>3147582</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8371054178213291</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8255265757242848</v>
+        <v>0.8249517037377305</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8468644919933154</v>
+        <v>0.8475684418669761</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7241</v>
@@ -8540,19 +8540,19 @@
         <v>5906984</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5834614</v>
+        <v>5836215</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5973966</v>
+        <v>5972481</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8165531213237439</v>
+        <v>0.8165531213237441</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.806549063579981</v>
+        <v>0.8067703589312312</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8258124881681487</v>
+        <v>0.8256071200728048</v>
       </c>
     </row>
     <row r="28">
